--- a/pred_ohlcv/54_21/2019-10-29 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>162581.5333363637</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>164449.2253363637</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>163777.7778363637</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -860,7 +860,7 @@
         <v>170513.5471363637</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>164386.8422363637</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>162386.9172363637</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>161737.0624363637</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>172739.4772905621</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>169626.1716905621</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>173129.8318905621</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>173129.8318905621</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>170320.0735905622</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>172651.2174905622</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>172652.2174905622</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>170244.0811905621</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>170244.0811905621</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>172162.0811905621</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>171431.0811905621</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>170332.8545905621</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>170332.8545905621</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>170333.8545905621</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>171163.8545905621</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>170271.4441905621</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>178356.0367905622</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>178056.0367905622</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>178056.0367905622</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>178058.0367905622</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>173773.8543905622</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>177056.8849905622</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>177056.8849905622</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>175905.2049905622</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>175905.2049905622</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>175905.2049905622</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>175905.2049905622</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>175782.2049905622</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>173586.4823905622</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>173588.4823905622</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>177536.7297905622</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>186009.7296905622</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>186009.7296905622</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>186009.7296905622</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>186009.7296905622</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>186009.7296905622</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>186011.7296905622</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>186011.7296905622</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>186011.7296905622</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>185711.7296905622</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>185060.5464905622</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>104662.2374905622</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>104662.2374905622</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>106662.2374905622</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>91759.09039056218</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>88728.09039056218</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>88728.09039056218</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>88250.92039056218</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>88250.92039056218</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>95561.92029056218</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>95562.92029056218</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>95353.20139056217</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>95351.01839056217</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>95314.51839056217</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>95314.51839056217</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>97468.01839056217</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>97468.01839056217</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>97469.01839056217</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>103220.0183905622</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>104806.9866905622</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>104806.9866905622</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>104873.0176905622</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>104471.1664905622</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>112172.4008905622</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>112172.4008905622</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>115270.4008905622</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>115270.4008905622</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>118880.4008905622</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>117910.3294905622</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>117913.3294905622</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>117914.3294905622</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>117686.4585905622</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>121246.4585905622</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>119582.3808905622</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>119583.3808905622</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>119583.3808905622</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>116318.0086905622</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>105002.4079905622</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>105002.4079905622</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>105003.4079905622</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>105003.4079905622</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>105004.4079905622</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>105004.4079905622</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>77004.40799056218</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>81421.24129056217</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>83922.75339056217</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>93195.52579056217</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>92303.79229056217</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>103206.6506905622</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 INS ohlcv.xlsx
@@ -2498,7 +2498,7 @@
         <v>172739.4772905621</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>169626.1716905621</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>173129.8318905621</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>173129.8318905621</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>170320.0735905622</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>172651.2174905622</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>172652.2174905622</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>170244.0811905621</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>170244.0811905621</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>172162.0811905621</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>171431.0811905621</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>170332.8545905621</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>170332.8545905621</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>170333.8545905621</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>171163.8545905621</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>170271.4441905621</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>178356.0367905622</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>178056.0367905622</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>178056.0367905622</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>178058.0367905622</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>104662.2374905622</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>91760.09039056218</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>88728.09039056218</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>88250.92039056218</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>88250.92039056218</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>95561.92029056218</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>95562.92029056218</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>95353.20139056217</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>95351.01839056217</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>95314.51839056217</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>95314.51839056217</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>97468.01839056217</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>97468.01839056217</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>97469.01839056217</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>103220.0183905622</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>104806.9866905622</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>104806.9866905622</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>104873.0176905622</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>104471.1664905622</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>112172.4008905622</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>112172.4008905622</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>115270.4008905622</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>115270.4008905622</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>118880.4008905622</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>117910.3294905622</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>117913.3294905622</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>117914.3294905622</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>117686.4585905622</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>121246.4585905622</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>119582.3808905622</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>119583.3808905622</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>119583.3808905622</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>116318.0086905622</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>105002.4079905622</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>105002.4079905622</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>105003.4079905622</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>105003.4079905622</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>105004.4079905622</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>105004.4079905622</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>77004.40799056218</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>81421.24129056217</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>88936.57529056216</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>89844.57529056216</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>83922.75339056217</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>93195.52579056217</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>92303.79229056217</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>92927.79229056217</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
